--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -175,44 +175,16 @@
     <t xml:space="preserve">ChatbotTestingOutputFile</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Data\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">ChatbotTestingResult</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.xls</t>
-    </r>
+    <t xml:space="preserve">Data\ChatbotTestingResult.xls</t>
   </si>
   <si>
     <t xml:space="preserve">ChatbotApplication</t>
   </si>
   <si>
-    <t xml:space="preserve">Skype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skype or AWS or Slack or Facebook, etc.</t>
+    <t xml:space="preserve">AWSLex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skype or AWSLex or Slack or Facebook, etc.</t>
   </si>
   <si>
     <t xml:space="preserve">Skype_Application</t>
@@ -242,16 +214,16 @@
     <t xml:space="preserve">C:\Program Files (x86)\Microsoft\Skype for Desktop\Skype.exe</t>
   </si>
   <si>
-    <t xml:space="preserve">AWS_URL</t>
+    <t xml:space="preserve">AWSLex_URL</t>
   </si>
   <si>
     <t xml:space="preserve">https://aws.amazon.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">AWS_ChatbotName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OrderCoffee</t>
+    <t xml:space="preserve">AWSLex_ChatbotName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrderDrink</t>
   </si>
   <si>
     <t xml:space="preserve">Asset</t>
@@ -279,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -309,12 +281,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1471,8 +1437,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
